--- a/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.87</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1561,13 +1604,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,589 +453,331 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0538</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005136</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安幸福生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4673</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3656</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3653</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010874</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2712</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010875</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1057</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,332 +1251,590 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>005821</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5707</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007639</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4465</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300193-佳士科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.87</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -532,6 +549,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1251,7 +1362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
